--- a/test_result_rows_added_many_rows.xlsx
+++ b/test_result_rows_added_many_rows.xlsx
@@ -51,7 +51,7 @@
     <t>Summary. Do not remove but push down</t>
   </si>
   <si>
-    <t>t</t>
+    <t>link</t>
   </si>
   <si>
     <t>example</t>
